--- a/biology/Médecine/Nétose/Nétose.xlsx
+++ b/biology/Médecine/Nétose/Nétose.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>N%C3%A9tose</t>
+          <t>Nétose</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,13 +490,15 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La nétose est un processus cellulaire immunitaire qui touche les cellules polynucléaires neutrophiles, et qui libère des fibres composées d'ADN et de protéines, et dont la fonction est de piéger des micro-organismes pathogènes. Ce terme vient de l'anglais NETosis ou NETs veut dire Neutrophil extracellular traps. La nétose fait partie de l'immunité innée mais pourrait aussi intervenir dans l'immunité adaptative.
-Elle peut s'accompagner ou non d'une auto-destruction de la cellule par un phénomène qui est à distinguer de l'apoptose et de la nécrose[1].
-Elle participe à la thrombogénèse, et donc à la coagulation sanguine[2].
-Elle est impliquée dans certaines maladies auto-immunes (lupus érythémateux[3], vascularite des petits vaisseaux[1]), les allergies, et les ischémies vasculaires.
-Elle a été décrite en 2004[4].
+Elle peut s'accompagner ou non d'une auto-destruction de la cellule par un phénomène qui est à distinguer de l'apoptose et de la nécrose.
+Elle participe à la thrombogénèse, et donc à la coagulation sanguine.
+Elle est impliquée dans certaines maladies auto-immunes (lupus érythémateux, vascularite des petits vaisseaux), les allergies, et les ischémies vasculaires.
+Elle a été décrite en 2004.
 </t>
         </is>
       </c>
